--- a/data.xlsx
+++ b/data.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R1f1caf9e9111454c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R0fb8512429fe4138"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -9585,14 +9585,55 @@
         </x:is>
       </x:c>
       <x:c s="6">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c s="6">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c s="6" t="inlineStr">
-        <x:is>
-          <x:t>A - Z</x:t>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="6">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="6" t="inlineStr">
+        <x:is>
+          <x:t>A - L</x:t>
+        </x:is>
+      </x:c>
+      <x:c/>
+      <x:c s="4"/>
+    </x:row>
+    <x:row>
+      <x:c s="6" t="inlineStr">
+        <x:is>
+          <x:t>MIE365H1F</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="6" t="inlineStr">
+        <x:is>
+          <x:t>Advanced OR</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="8">
+        <x:v>45636</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>0.58333333333333337</x:v>
+      </x:c>
+      <x:c s="6" t="inlineStr">
+        <x:is>
+          <x:t>RS-303</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="6" t="inlineStr">
+        <x:is>
+          <x:t>CPU(A)</x:t>
+        </x:is>
+      </x:c>
+      <x:c s="6">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="6">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c s="6" t="inlineStr">
+        <x:is>
+          <x:t>M - Z</x:t>
         </x:is>
       </x:c>
       <x:c/>
@@ -11949,18 +11990,22 @@
     <x:mergeCell ref="C226:C227"/>
     <x:mergeCell ref="B226:B227"/>
     <x:mergeCell ref="A226:A227"/>
-    <x:mergeCell ref="D244:D245"/>
-    <x:mergeCell ref="C244:C245"/>
-    <x:mergeCell ref="B244:B245"/>
-    <x:mergeCell ref="A244:A245"/>
-    <x:mergeCell ref="D270:D271"/>
-    <x:mergeCell ref="C270:C271"/>
-    <x:mergeCell ref="B270:B271"/>
-    <x:mergeCell ref="A270:A271"/>
-    <x:mergeCell ref="D272:D273"/>
-    <x:mergeCell ref="C272:C273"/>
-    <x:mergeCell ref="B272:B273"/>
-    <x:mergeCell ref="A272:A273"/>
+    <x:mergeCell ref="D229:D230"/>
+    <x:mergeCell ref="C229:C230"/>
+    <x:mergeCell ref="B229:B230"/>
+    <x:mergeCell ref="A229:A230"/>
+    <x:mergeCell ref="D245:D246"/>
+    <x:mergeCell ref="C245:C246"/>
+    <x:mergeCell ref="B245:B246"/>
+    <x:mergeCell ref="A245:A246"/>
+    <x:mergeCell ref="D271:D272"/>
+    <x:mergeCell ref="C271:C272"/>
+    <x:mergeCell ref="B271:B272"/>
+    <x:mergeCell ref="A271:A272"/>
+    <x:mergeCell ref="D273:D274"/>
+    <x:mergeCell ref="C273:C274"/>
+    <x:mergeCell ref="B273:B274"/>
+    <x:mergeCell ref="A273:A274"/>
   </x:mergeCells>
 </x:worksheet>
 </file>